--- a/biology/Médecine/Alexandre_Blanchet_(médecin)/Alexandre_Blanchet_(médecin).xlsx
+++ b/biology/Médecine/Alexandre_Blanchet_(médecin)/Alexandre_Blanchet_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre_Blanchet_(m%C3%A9decin)</t>
+          <t>Alexandre_Blanchet_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexande-Louis-Paul Blanchet, né le 16 janvier 1819 à Saint-Lô[1] et mort le 21 février 1867 dans le 2e arrondissement de Paris[2], est un chirurgien français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexande-Louis-Paul Blanchet, né le 16 janvier 1819 à Saint-Lô et mort le 21 février 1867 dans le 2e arrondissement de Paris, est un chirurgien français. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandre_Blanchet_(m%C3%A9decin)</t>
+          <t>Alexandre_Blanchet_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Reçu docteur en médecine à Paris en 1842, il se fait connaître surtout par ses travaux sur les maladies de la vue, de l'oreille, et de la surdi-mutité. Nommé chirurgien en chef de l'Institution des sourds-muets, il essaye sur ses patients un traitement dont la musique est la base et qui reçoit l'approbation de l'Académie de médecine.
 En 1847, le docteur Blanchet fonde une société pour l'assistance et l'éducation des sourds-muets ainsi que des aveugles en France. Il milite aussi pour l'éducation des sourds-muets au contact d'enfants non handicapés et leur maintien auprès de leur famille.
 De 1849 à 1852, il visite aux frais de l'État les établissements de sourds-muets d'Allemagne, de Belgique, etc. afin d'étudier les procédés qui y sont en vigueur, tant au point de vue pédagogique qu'au point de vue du traitement et des procédés de guérison.
 Alexandre Blanchet était officier de la Légion d'honneur.
-Il est inhumé dans la chapelle familiale du cimetière de Saint-Lô[3]. 
+Il est inhumé dans la chapelle familiale du cimetière de Saint-Lô. 
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre_Blanchet_(m%C3%A9decin)</t>
+          <t>Alexandre_Blanchet_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traité philosophique et médical sur la surdi-mutité. (1550-1552, 2 volumes.)
 Sur la théorie des ondes sonores.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre_Blanchet_(m%C3%A9decin)</t>
+          <t>Alexandre_Blanchet_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Tome II.</t>
         </is>
